--- a/seriea_match_urls.xlsx
+++ b/seriea_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="761">
   <si>
     <t>x</t>
   </si>
@@ -1154,6 +1154,9 @@
     <t>379</t>
   </si>
   <si>
+    <t>380</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/305afcf5/Frosinone-Napoli-August-19-2023-Serie-A</t>
   </si>
   <si>
@@ -2289,6 +2292,9 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/d97ac2fa/Hellas-Verona-Internazionale-May-26-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ceb127e3/Atalanta-Fiorentina-June-2-2024-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -2350,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3">
@@ -2358,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
@@ -2366,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5">
@@ -2374,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
@@ -2382,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7">
@@ -2390,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8">
@@ -2398,7 +2404,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9">
@@ -2406,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
@@ -2414,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
@@ -2422,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12">
@@ -2430,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13">
@@ -2438,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14">
@@ -2446,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15">
@@ -2454,7 +2460,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16">
@@ -2462,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17">
@@ -2470,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18">
@@ -2478,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19">
@@ -2486,7 +2492,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20">
@@ -2494,7 +2500,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21">
@@ -2502,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
@@ -2510,7 +2516,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23">
@@ -2518,7 +2524,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24">
@@ -2526,7 +2532,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25">
@@ -2534,7 +2540,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26">
@@ -2542,7 +2548,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27">
@@ -2550,7 +2556,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28">
@@ -2558,7 +2564,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29">
@@ -2566,7 +2572,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30">
@@ -2574,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31">
@@ -2582,7 +2588,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32">
@@ -2590,7 +2596,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33">
@@ -2598,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34">
@@ -2606,7 +2612,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="35">
@@ -2614,7 +2620,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36">
@@ -2622,7 +2628,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37">
@@ -2630,7 +2636,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38">
@@ -2638,7 +2644,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39">
@@ -2646,7 +2652,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40">
@@ -2654,7 +2660,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41">
@@ -2662,7 +2668,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42">
@@ -2670,7 +2676,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43">
@@ -2678,7 +2684,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44">
@@ -2686,7 +2692,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45">
@@ -2694,7 +2700,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46">
@@ -2702,7 +2708,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47">
@@ -2710,7 +2716,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48">
@@ -2718,7 +2724,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49">
@@ -2726,7 +2732,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
@@ -2734,7 +2740,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
@@ -2742,7 +2748,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52">
@@ -2750,7 +2756,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53">
@@ -2758,7 +2764,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54">
@@ -2766,7 +2772,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55">
@@ -2774,7 +2780,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56">
@@ -2782,7 +2788,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57">
@@ -2790,7 +2796,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58">
@@ -2798,7 +2804,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59">
@@ -2806,7 +2812,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60">
@@ -2814,7 +2820,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61">
@@ -2822,7 +2828,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62">
@@ -2830,7 +2836,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63">
@@ -2838,7 +2844,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64">
@@ -2846,7 +2852,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65">
@@ -2854,7 +2860,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66">
@@ -2862,7 +2868,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67">
@@ -2870,7 +2876,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68">
@@ -2878,7 +2884,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69">
@@ -2886,7 +2892,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70">
@@ -2894,7 +2900,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71">
@@ -2902,7 +2908,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72">
@@ -2910,7 +2916,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73">
@@ -2918,7 +2924,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74">
@@ -2926,7 +2932,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="75">
@@ -2934,7 +2940,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76">
@@ -2942,7 +2948,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77">
@@ -2950,7 +2956,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78">
@@ -2958,7 +2964,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79">
@@ -2966,7 +2972,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80">
@@ -2974,7 +2980,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81">
@@ -2982,7 +2988,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82">
@@ -2990,7 +2996,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83">
@@ -2998,7 +3004,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="84">
@@ -3006,7 +3012,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85">
@@ -3014,7 +3020,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86">
@@ -3022,7 +3028,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87">
@@ -3030,7 +3036,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88">
@@ -3038,7 +3044,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89">
@@ -3046,7 +3052,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90">
@@ -3054,7 +3060,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="91">
@@ -3062,7 +3068,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="92">
@@ -3070,7 +3076,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93">
@@ -3078,7 +3084,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94">
@@ -3086,7 +3092,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3100,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96">
@@ -3102,7 +3108,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97">
@@ -3110,7 +3116,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="98">
@@ -3118,7 +3124,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99">
@@ -3126,7 +3132,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100">
@@ -3134,7 +3140,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101">
@@ -3142,7 +3148,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102">
@@ -3150,7 +3156,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103">
@@ -3158,7 +3164,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104">
@@ -3166,7 +3172,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="105">
@@ -3174,7 +3180,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106">
@@ -3182,7 +3188,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107">
@@ -3190,7 +3196,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108">
@@ -3198,7 +3204,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109">
@@ -3206,7 +3212,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110">
@@ -3214,7 +3220,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111">
@@ -3222,7 +3228,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112">
@@ -3230,7 +3236,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113">
@@ -3238,7 +3244,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="114">
@@ -3246,7 +3252,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115">
@@ -3254,7 +3260,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116">
@@ -3262,7 +3268,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117">
@@ -3270,7 +3276,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118">
@@ -3278,7 +3284,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119">
@@ -3286,7 +3292,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120">
@@ -3294,7 +3300,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121">
@@ -3302,7 +3308,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122">
@@ -3310,7 +3316,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="123">
@@ -3318,7 +3324,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124">
@@ -3326,7 +3332,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="125">
@@ -3334,7 +3340,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="126">
@@ -3342,7 +3348,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127">
@@ -3350,7 +3356,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128">
@@ -3358,7 +3364,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129">
@@ -3366,7 +3372,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="130">
@@ -3374,7 +3380,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="131">
@@ -3382,7 +3388,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="132">
@@ -3390,7 +3396,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133">
@@ -3398,7 +3404,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="134">
@@ -3406,7 +3412,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="135">
@@ -3414,7 +3420,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="136">
@@ -3422,7 +3428,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="137">
@@ -3430,7 +3436,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="138">
@@ -3438,7 +3444,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="139">
@@ -3446,7 +3452,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="140">
@@ -3454,7 +3460,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="141">
@@ -3462,7 +3468,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142">
@@ -3470,7 +3476,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="143">
@@ -3478,7 +3484,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144">
@@ -3486,7 +3492,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145">
@@ -3494,7 +3500,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146">
@@ -3502,7 +3508,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147">
@@ -3510,7 +3516,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148">
@@ -3518,7 +3524,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149">
@@ -3526,7 +3532,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150">
@@ -3534,7 +3540,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="151">
@@ -3542,7 +3548,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152">
@@ -3550,7 +3556,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="153">
@@ -3558,7 +3564,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="154">
@@ -3566,7 +3572,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="155">
@@ -3574,7 +3580,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156">
@@ -3582,7 +3588,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="157">
@@ -3590,7 +3596,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="158">
@@ -3598,7 +3604,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159">
@@ -3606,7 +3612,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="160">
@@ -3614,7 +3620,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="161">
@@ -3622,7 +3628,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162">
@@ -3630,7 +3636,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="163">
@@ -3638,7 +3644,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="164">
@@ -3646,7 +3652,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="165">
@@ -3654,7 +3660,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="166">
@@ -3662,7 +3668,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="167">
@@ -3670,7 +3676,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="168">
@@ -3678,7 +3684,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="169">
@@ -3686,7 +3692,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="170">
@@ -3694,7 +3700,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="171">
@@ -3702,7 +3708,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="172">
@@ -3710,7 +3716,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="173">
@@ -3718,7 +3724,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="174">
@@ -3726,7 +3732,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175">
@@ -3734,7 +3740,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="176">
@@ -3742,7 +3748,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="177">
@@ -3750,7 +3756,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="178">
@@ -3758,7 +3764,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="179">
@@ -3766,7 +3772,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="180">
@@ -3774,7 +3780,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="181">
@@ -3782,7 +3788,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="182">
@@ -3790,7 +3796,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="183">
@@ -3798,7 +3804,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184">
@@ -3806,7 +3812,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="185">
@@ -3814,7 +3820,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186">
@@ -3822,7 +3828,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="187">
@@ -3830,7 +3836,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="188">
@@ -3838,7 +3844,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189">
@@ -3846,7 +3852,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190">
@@ -3854,7 +3860,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="191">
@@ -3862,7 +3868,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192">
@@ -3870,7 +3876,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193">
@@ -3878,7 +3884,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="194">
@@ -3886,7 +3892,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195">
@@ -3894,7 +3900,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="196">
@@ -3902,7 +3908,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="197">
@@ -3910,7 +3916,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="198">
@@ -3918,7 +3924,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="199">
@@ -3926,7 +3932,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="200">
@@ -3934,7 +3940,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="201">
@@ -3942,7 +3948,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="202">
@@ -3950,7 +3956,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203">
@@ -3958,7 +3964,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="204">
@@ -3966,7 +3972,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="205">
@@ -3974,7 +3980,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="206">
@@ -3982,7 +3988,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="207">
@@ -3990,7 +3996,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="208">
@@ -3998,7 +4004,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="209">
@@ -4006,7 +4012,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="210">
@@ -4014,7 +4020,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="211">
@@ -4022,7 +4028,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="212">
@@ -4030,7 +4036,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="213">
@@ -4038,7 +4044,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="214">
@@ -4046,7 +4052,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="215">
@@ -4054,7 +4060,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="216">
@@ -4062,7 +4068,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="217">
@@ -4070,7 +4076,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="218">
@@ -4078,7 +4084,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="219">
@@ -4086,7 +4092,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="220">
@@ -4094,7 +4100,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="221">
@@ -4102,7 +4108,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222">
@@ -4110,7 +4116,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="223">
@@ -4118,7 +4124,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="224">
@@ -4126,7 +4132,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="225">
@@ -4134,7 +4140,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="226">
@@ -4142,7 +4148,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="227">
@@ -4150,7 +4156,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="228">
@@ -4158,7 +4164,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="229">
@@ -4166,7 +4172,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="230">
@@ -4174,7 +4180,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="231">
@@ -4182,7 +4188,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="232">
@@ -4190,7 +4196,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="233">
@@ -4198,7 +4204,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="234">
@@ -4206,7 +4212,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="235">
@@ -4214,7 +4220,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="236">
@@ -4222,7 +4228,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="237">
@@ -4230,7 +4236,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238">
@@ -4238,7 +4244,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="239">
@@ -4246,7 +4252,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="240">
@@ -4254,7 +4260,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="241">
@@ -4262,7 +4268,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="242">
@@ -4270,7 +4276,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="243">
@@ -4278,7 +4284,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="244">
@@ -4286,7 +4292,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="245">
@@ -4294,7 +4300,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="246">
@@ -4302,7 +4308,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="247">
@@ -4310,7 +4316,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="248">
@@ -4318,7 +4324,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="249">
@@ -4326,7 +4332,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="250">
@@ -4334,7 +4340,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="251">
@@ -4342,7 +4348,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="252">
@@ -4350,7 +4356,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="253">
@@ -4358,7 +4364,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="254">
@@ -4366,7 +4372,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="255">
@@ -4374,7 +4380,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="256">
@@ -4382,7 +4388,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="257">
@@ -4390,7 +4396,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="258">
@@ -4398,7 +4404,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="259">
@@ -4406,7 +4412,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="260">
@@ -4414,7 +4420,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="261">
@@ -4422,7 +4428,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="262">
@@ -4430,7 +4436,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="263">
@@ -4438,7 +4444,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="264">
@@ -4446,7 +4452,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="265">
@@ -4454,7 +4460,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="266">
@@ -4462,7 +4468,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="267">
@@ -4470,7 +4476,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="268">
@@ -4478,7 +4484,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="269">
@@ -4486,7 +4492,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="270">
@@ -4494,7 +4500,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="271">
@@ -4502,7 +4508,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="272">
@@ -4510,7 +4516,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="273">
@@ -4518,7 +4524,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="274">
@@ -4526,7 +4532,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="275">
@@ -4534,7 +4540,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="276">
@@ -4542,7 +4548,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="277">
@@ -4550,7 +4556,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="278">
@@ -4558,7 +4564,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="279">
@@ -4566,7 +4572,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="280">
@@ -4574,7 +4580,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="281">
@@ -4582,7 +4588,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="282">
@@ -4590,7 +4596,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="283">
@@ -4598,7 +4604,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="284">
@@ -4606,7 +4612,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="285">
@@ -4614,7 +4620,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="286">
@@ -4622,7 +4628,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="287">
@@ -4630,7 +4636,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="288">
@@ -4638,7 +4644,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="289">
@@ -4646,7 +4652,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="290">
@@ -4654,7 +4660,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="291">
@@ -4662,7 +4668,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="292">
@@ -4670,7 +4676,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="293">
@@ -4678,7 +4684,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="294">
@@ -4686,7 +4692,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="295">
@@ -4694,7 +4700,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="296">
@@ -4702,7 +4708,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="297">
@@ -4710,7 +4716,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="298">
@@ -4718,7 +4724,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="299">
@@ -4726,7 +4732,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="300">
@@ -4734,7 +4740,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="301">
@@ -4742,7 +4748,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="302">
@@ -4750,7 +4756,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="303">
@@ -4758,7 +4764,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="304">
@@ -4766,7 +4772,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="305">
@@ -4774,7 +4780,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="306">
@@ -4782,7 +4788,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="307">
@@ -4790,7 +4796,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="308">
@@ -4798,7 +4804,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="309">
@@ -4806,7 +4812,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="310">
@@ -4814,7 +4820,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="311">
@@ -4822,7 +4828,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="312">
@@ -4830,7 +4836,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="313">
@@ -4838,7 +4844,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="314">
@@ -4846,7 +4852,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="315">
@@ -4854,7 +4860,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="316">
@@ -4862,7 +4868,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="317">
@@ -4870,7 +4876,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="318">
@@ -4878,7 +4884,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="319">
@@ -4886,7 +4892,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="320">
@@ -4894,7 +4900,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="321">
@@ -4902,7 +4908,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="322">
@@ -4910,7 +4916,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="323">
@@ -4918,7 +4924,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="324">
@@ -4926,7 +4932,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="325">
@@ -4934,7 +4940,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="326">
@@ -4942,7 +4948,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="327">
@@ -4950,7 +4956,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="328">
@@ -4958,7 +4964,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="329">
@@ -4966,7 +4972,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="330">
@@ -4974,7 +4980,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="331">
@@ -4982,7 +4988,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="332">
@@ -4990,7 +4996,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="333">
@@ -4998,7 +5004,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="334">
@@ -5006,7 +5012,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="335">
@@ -5014,7 +5020,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="336">
@@ -5022,7 +5028,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="337">
@@ -5030,7 +5036,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="338">
@@ -5038,7 +5044,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="339">
@@ -5046,7 +5052,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="340">
@@ -5054,7 +5060,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="341">
@@ -5062,7 +5068,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="342">
@@ -5070,7 +5076,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="343">
@@ -5078,7 +5084,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="344">
@@ -5086,7 +5092,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="345">
@@ -5094,7 +5100,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="346">
@@ -5102,7 +5108,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="347">
@@ -5110,7 +5116,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="348">
@@ -5118,7 +5124,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="349">
@@ -5126,7 +5132,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="350">
@@ -5134,7 +5140,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="351">
@@ -5142,7 +5148,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="352">
@@ -5150,7 +5156,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="353">
@@ -5158,7 +5164,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="354">
@@ -5166,7 +5172,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="355">
@@ -5174,7 +5180,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="356">
@@ -5182,7 +5188,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="357">
@@ -5190,7 +5196,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="358">
@@ -5198,7 +5204,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="359">
@@ -5206,7 +5212,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="360">
@@ -5214,7 +5220,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="361">
@@ -5222,7 +5228,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="362">
@@ -5230,7 +5236,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="363">
@@ -5238,7 +5244,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="364">
@@ -5246,7 +5252,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="365">
@@ -5254,7 +5260,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="366">
@@ -5262,7 +5268,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="367">
@@ -5270,7 +5276,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="368">
@@ -5278,7 +5284,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="369">
@@ -5286,7 +5292,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="370">
@@ -5294,7 +5300,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="371">
@@ -5302,7 +5308,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="372">
@@ -5310,7 +5316,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="373">
@@ -5318,7 +5324,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="374">
@@ -5326,7 +5332,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="375">
@@ -5334,7 +5340,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="376">
@@ -5342,7 +5348,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="377">
@@ -5350,7 +5356,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="378">
@@ -5358,7 +5364,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="379">
@@ -5366,7 +5372,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="380">
@@ -5374,7 +5380,15 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>758</v>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/seriea_match_urls.xlsx
+++ b/seriea_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>x</t>
   </si>
@@ -167,6 +167,36 @@
     <t>50</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/5dd9a8ae/Genoa-Internazionale-August-17-2024-Serie-A</t>
   </si>
   <si>
@@ -315,6 +345,36 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/3e592227/Atalanta-Como-September-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6d6624e2/Milan-Lecce-September-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a87c6b35/Udinese-Internazionale-September-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b21bad0d/Genoa-Juventus-September-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5ebd3c92/Bologna-Atalanta-September-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/caf6a7d2/Torino-Lazio-September-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1b4d793e/Como-Hellas-Verona-September-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec69829c/Roma-Venezia-September-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/11c1605f/Empoli-Fiorentina-September-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/54f6fa48/Napoli-Monza-September-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/df2ec112/Parma-Cagliari-September-30-2024-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -376,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +516,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +540,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +548,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +564,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +604,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +612,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +620,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +628,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +636,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +644,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +652,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +660,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +668,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +676,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +684,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +692,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +700,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +708,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +716,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +724,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +732,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +740,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +748,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +756,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +764,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +772,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +780,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +788,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +796,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +804,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +812,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +820,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +828,87 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/seriea_match_urls.xlsx
+++ b/seriea_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>x</t>
   </si>
@@ -197,6 +197,66 @@
     <t>60</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/5dd9a8ae/Genoa-Internazionale-August-17-2024-Serie-A</t>
   </si>
   <si>
@@ -375,6 +435,66 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/df2ec112/Parma-Cagliari-September-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e474c2fe/Napoli-Como-October-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f8385042/Hellas-Verona-Venezia-October-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e86c2b7c/Udinese-Lecce-October-5-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b1035fb5/Atalanta-Genoa-October-5-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/282abdf2/Internazionale-Torino-October-5-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f957426/Juventus-Cagliari-October-6-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0ca23022/Bologna-Parma-October-6-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b642876/Lazio-Empoli-October-6-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d19770cf/Monza-Roma-October-6-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7b49f33b/Fiorentina-Milan-October-6-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0e383c84/Como-Parma-October-19-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b69fbc8e/Genoa-Bologna-October-19-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c9b4f966/Milan-Udinese-October-19-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2a7043fd/Juventus-Lazio-October-19-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e486a986/Empoli-Napoli-October-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/015e4919/Lecce-Fiorentina-October-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2ec189f4/Venezia-Atalanta-October-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1d1a4e0d/Cagliari-Torino-October-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f65c16b7/Roma-Internazionale-October-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1bf8a854/Hellas-Verona-Monza-October-21-2024-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -436,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -444,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -452,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -468,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -476,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -484,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -492,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -500,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -508,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -516,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -524,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -532,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -540,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -548,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -556,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -564,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -572,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -580,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -588,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -596,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -604,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -612,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -620,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -628,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -636,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -644,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -652,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -660,7 +780,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -668,7 +788,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -676,7 +796,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -684,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -692,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -700,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -708,7 +828,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -716,7 +836,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -724,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -732,7 +852,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -740,7 +860,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -748,7 +868,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -756,7 +876,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -764,7 +884,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -772,7 +892,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -780,7 +900,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -788,7 +908,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -796,7 +916,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
@@ -804,7 +924,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -812,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -820,7 +940,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -828,7 +948,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -836,7 +956,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -844,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
@@ -852,7 +972,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -860,7 +980,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -868,7 +988,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -876,7 +996,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -884,7 +1004,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -892,7 +1012,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -900,7 +1020,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -908,7 +1028,167 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/seriea_match_urls.xlsx
+++ b/seriea_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>x</t>
   </si>
@@ -257,6 +257,99 @@
     <t>80</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/5dd9a8ae/Genoa-Internazionale-August-17-2024-Serie-A</t>
   </si>
   <si>
@@ -495,6 +588,99 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/1bf8a854/Hellas-Verona-Monza-October-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8bd5bba7/Udinese-Cagliari-October-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/05c25e1e/Torino-Como-October-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/69ffe801/Napoli-Lecce-October-26-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8e432430/Atalanta-Hellas-Verona-October-26-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/edec012f/Parma-Empoli-October-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/67b8955a/Lazio-Genoa-October-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee055cc8/Monza-Venezia-October-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1e164a6c/Derby-dItalia-Internazionale-Juventus-October-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/54bfe5ba/Fiorentina-Roma-October-27-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1affd587/Lecce-Hellas-Verona-October-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cbe119cc/Cagliari-Bologna-October-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da11c409/Milan-Napoli-October-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/50efe60a/Venezia-Udinese-October-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a2a61f01/Empoli-Internazionale-October-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/75f96018/Atalanta-Monza-October-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc7ed4c6/Juventus-Parma-October-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/463a6b71/Genoa-Fiorentina-October-31-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/128ece0d/Como-Lazio-October-31-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2d7f07e3/Roma-Torino-October-31-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/131fb996/Bologna-Lecce-November-2-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2680b604/Udinese-Juventus-November-2-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e2f5ec6/Monza-Milan-November-2-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/31d4ab7d/Napoli-Atalanta-November-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c298383/Torino-Fiorentina-November-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0c67c952/Hellas-Verona-Roma-November-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f6ba9194/Internazionale-Venezia-November-3-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cf8ba91a/Empoli-Como-November-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d8a1b693/Parma-Genoa-November-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b3fa2e3c/Lazio-Cagliari-November-4-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee077ae1/Genoa-Como-November-7-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dac22768/Lecce-Empoli-November-8-2024-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -556,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
@@ -564,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -588,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
@@ -596,7 +782,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +790,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -620,7 +806,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -636,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -652,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -660,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -668,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -684,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -692,7 +878,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
@@ -700,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
@@ -708,7 +894,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22">
@@ -716,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
@@ -724,7 +910,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24">
@@ -732,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25">
@@ -740,7 +926,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -748,7 +934,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
@@ -756,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28">
@@ -764,7 +950,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29">
@@ -772,7 +958,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
@@ -780,7 +966,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
@@ -788,7 +974,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
@@ -796,7 +982,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
@@ -804,7 +990,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34">
@@ -812,7 +998,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
@@ -820,7 +1006,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36">
@@ -828,7 +1014,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
@@ -836,7 +1022,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38">
@@ -844,7 +1030,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39">
@@ -852,7 +1038,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40">
@@ -860,7 +1046,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
@@ -868,7 +1054,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42">
@@ -876,7 +1062,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43">
@@ -884,7 +1070,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44">
@@ -892,7 +1078,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45">
@@ -900,7 +1086,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -908,7 +1094,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47">
@@ -916,7 +1102,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48">
@@ -924,7 +1110,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49">
@@ -932,7 +1118,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50">
@@ -940,7 +1126,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51">
@@ -948,7 +1134,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52">
@@ -956,7 +1142,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53">
@@ -964,7 +1150,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +1158,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55">
@@ -980,7 +1166,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56">
@@ -988,7 +1174,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +1182,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58">
@@ -1004,7 +1190,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59">
@@ -1012,7 +1198,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60">
@@ -1020,7 +1206,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1214,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62">
@@ -1036,7 +1222,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63">
@@ -1044,7 +1230,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
@@ -1052,7 +1238,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
@@ -1060,7 +1246,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66">
@@ -1068,7 +1254,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67">
@@ -1076,7 +1262,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68">
@@ -1084,7 +1270,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69">
@@ -1092,7 +1278,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70">
@@ -1100,7 +1286,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71">
@@ -1108,7 +1294,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72">
@@ -1116,7 +1302,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73">
@@ -1124,7 +1310,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74">
@@ -1132,7 +1318,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75">
@@ -1140,7 +1326,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76">
@@ -1148,7 +1334,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77">
@@ -1156,7 +1342,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78">
@@ -1164,7 +1350,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79">
@@ -1172,7 +1358,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80">
@@ -1180,7 +1366,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81">
@@ -1188,7 +1374,255 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/seriea_match_urls.xlsx
+++ b/seriea_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>x</t>
   </si>
@@ -350,6 +350,30 @@
     <t>111</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/5dd9a8ae/Genoa-Internazionale-August-17-2024-Serie-A</t>
   </si>
   <si>
@@ -681,6 +705,30 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/dac22768/Lecce-Empoli-November-8-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8b0cfe1d/Venezia-Parma-November-9-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/23026b6f/Cagliari-Milan-November-9-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/51962386/Juventus-Torino-November-9-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fcc555f9/Atalanta-Udinese-November-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b93d514f/Roma-Bologna-November-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c9d4e593/Fiorentina-Hellas-Verona-November-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90116cdb/Monza-Lazio-November-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8a3f7f87/Internazionale-Napoli-November-10-2024-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -742,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -758,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -766,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -774,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -782,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -790,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -798,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -806,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -814,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -822,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -830,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -838,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -846,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -854,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
@@ -862,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -870,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
@@ -878,7 +926,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -886,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -894,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
@@ -902,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -910,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24">
@@ -918,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25">
@@ -926,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
@@ -934,7 +982,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
@@ -942,7 +990,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -950,7 +998,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
@@ -958,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
@@ -966,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
@@ -974,7 +1022,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32">
@@ -982,7 +1030,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -990,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -998,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
@@ -1006,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
@@ -1014,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37">
@@ -1022,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38">
@@ -1030,7 +1078,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39">
@@ -1038,7 +1086,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40">
@@ -1046,7 +1094,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -1054,7 +1102,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42">
@@ -1062,7 +1110,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
@@ -1070,7 +1118,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44">
@@ -1078,7 +1126,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
@@ -1086,7 +1134,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46">
@@ -1094,7 +1142,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
@@ -1102,7 +1150,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1158,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
@@ -1118,7 +1166,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50">
@@ -1126,7 +1174,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51">
@@ -1134,7 +1182,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52">
@@ -1142,7 +1190,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53">
@@ -1150,7 +1198,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54">
@@ -1158,7 +1206,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
@@ -1166,7 +1214,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56">
@@ -1174,7 +1222,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57">
@@ -1182,7 +1230,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58">
@@ -1190,7 +1238,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59">
@@ -1198,7 +1246,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60">
@@ -1206,7 +1254,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61">
@@ -1214,7 +1262,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62">
@@ -1222,7 +1270,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63">
@@ -1230,7 +1278,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64">
@@ -1238,7 +1286,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65">
@@ -1246,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66">
@@ -1254,7 +1302,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67">
@@ -1262,7 +1310,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68">
@@ -1270,7 +1318,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69">
@@ -1278,7 +1326,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70">
@@ -1286,7 +1334,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71">
@@ -1294,7 +1342,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
@@ -1302,7 +1350,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
@@ -1310,7 +1358,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74">
@@ -1318,7 +1366,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
@@ -1326,7 +1374,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
@@ -1334,7 +1382,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -1342,7 +1390,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -1350,7 +1398,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -1358,7 +1406,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80">
@@ -1366,7 +1414,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81">
@@ -1374,7 +1422,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82">
@@ -1382,7 +1430,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -1390,7 +1438,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84">
@@ -1398,7 +1446,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
@@ -1406,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86">
@@ -1414,7 +1462,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -1422,7 +1470,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -1430,7 +1478,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -1438,7 +1486,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -1446,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -1454,7 +1502,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -1462,7 +1510,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93">
@@ -1470,7 +1518,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94">
@@ -1478,7 +1526,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95">
@@ -1486,7 +1534,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
@@ -1494,7 +1542,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97">
@@ -1502,7 +1550,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98">
@@ -1510,7 +1558,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
@@ -1518,7 +1566,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100">
@@ -1526,7 +1574,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101">
@@ -1534,7 +1582,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102">
@@ -1542,7 +1590,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103">
@@ -1550,7 +1598,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104">
@@ -1558,7 +1606,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
@@ -1566,7 +1614,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106">
@@ -1574,7 +1622,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107">
@@ -1582,7 +1630,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108">
@@ -1590,7 +1638,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109">
@@ -1598,7 +1646,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110">
@@ -1606,7 +1654,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111">
@@ -1614,7 +1662,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112">
@@ -1622,7 +1670,71 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/seriea_match_urls.xlsx
+++ b/seriea_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>x</t>
   </si>
@@ -374,6 +374,126 @@
     <t>119</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/5dd9a8ae/Genoa-Internazionale-August-17-2024-Serie-A</t>
   </si>
   <si>
@@ -729,6 +849,126 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/8a3f7f87/Internazionale-Napoli-November-10-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f40e8673/Hellas-Verona-Internazionale-November-23-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3d6d1119/Milan-Juventus-November-23-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b0abcd14/Parma-Atalanta-November-23-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a1e4119/Genoa-Cagliari-November-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8ad4e7bb/Como-Fiorentina-November-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a9bc6012/Torino-Monza-November-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5993c0f0/Derby-del-Sole-Napoli-Roma-November-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b823aa0b/Lazio-Bologna-November-24-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/249de3fa/Empoli-Udinese-November-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/616c48a5/Venezia-Lecce-November-25-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b2adb745/Cagliari-Hellas-Verona-November-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/54be0ee5/Como-Monza-November-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1d6a6ac7/Milan-Empoli-November-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/75f6e865/Bologna-Venezia-November-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bb7b34e8/Udinese-Genoa-December-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/148db1a0/Torino-Napoli-December-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/655f8c05/Parma-Lazio-December-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7e35659/Fiorentina-Internazionale-December-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6663ff8b/Lecce-Juventus-December-1-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/74396b38/Roma-Atalanta-December-2-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/36a8e6c1/Internazionale-Parma-December-6-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3c291cde/Atalanta-Milan-December-6-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5209f745/Genoa-Torino-December-7-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f335a456/Juventus-Bologna-December-7-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2f4aac74/Roma-Lecce-December-7-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a3f7f065/Fiorentina-Cagliari-December-8-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/52d351e8/Hellas-Verona-Empoli-December-8-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4171bb56/Venezia-Como-December-8-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aea55efb/Napoli-Lazio-December-8-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fbe80ac9/Monza-Udinese-December-9-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/33b426d2/Empoli-Torino-December-13-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/69244b8a/Cagliari-Atalanta-December-14-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/700e4d44/Udinese-Napoli-December-14-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6eb424b7/Juventus-Venezia-December-14-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4bd3b181/Lecce-Monza-December-15-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4be7984/Derby-dellAppennino-Bologna-Fiorentina-December-15-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c31235f0/Parma-Hellas-Verona-December-15-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/27c53562/Como-Roma-December-15-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/715aa683/Milan-Genoa-December-15-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/180750a4/Lazio-Internazionale-December-16-2024-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -790,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
@@ -806,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -822,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7">
@@ -830,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -838,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
@@ -854,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
@@ -862,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12">
@@ -870,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
@@ -878,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
@@ -886,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -894,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
@@ -902,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +1158,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -926,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -934,7 +1174,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
@@ -942,7 +1182,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -950,7 +1190,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +1198,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
@@ -966,7 +1206,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -974,7 +1214,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26">
@@ -982,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27">
@@ -990,7 +1230,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
@@ -998,7 +1238,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29">
@@ -1006,7 +1246,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
@@ -1014,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
@@ -1022,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
@@ -1030,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
@@ -1038,7 +1278,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1286,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35">
@@ -1054,7 +1294,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36">
@@ -1062,7 +1302,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37">
@@ -1070,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38">
@@ -1078,7 +1318,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39">
@@ -1086,7 +1326,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40">
@@ -1094,7 +1334,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41">
@@ -1102,7 +1342,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42">
@@ -1110,7 +1350,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43">
@@ -1118,7 +1358,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44">
@@ -1126,7 +1366,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45">
@@ -1134,7 +1374,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46">
@@ -1142,7 +1382,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47">
@@ -1150,7 +1390,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48">
@@ -1158,7 +1398,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
@@ -1166,7 +1406,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50">
@@ -1174,7 +1414,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51">
@@ -1182,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
     </row>
     <row r="52">
@@ -1190,7 +1430,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53">
@@ -1198,7 +1438,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1446,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55">
@@ -1214,7 +1454,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1462,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57">
@@ -1230,7 +1470,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58">
@@ -1238,7 +1478,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="59">
@@ -1246,7 +1486,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60">
@@ -1254,7 +1494,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61">
@@ -1262,7 +1502,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
@@ -1270,7 +1510,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63">
@@ -1278,7 +1518,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64">
@@ -1286,7 +1526,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65">
@@ -1294,7 +1534,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66">
@@ -1302,7 +1542,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67">
@@ -1310,7 +1550,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1558,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1566,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70">
@@ -1334,7 +1574,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71">
@@ -1342,7 +1582,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72">
@@ -1350,7 +1590,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73">
@@ -1358,7 +1598,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74">
@@ -1366,7 +1606,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75">
@@ -1374,7 +1614,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76">
@@ -1382,7 +1622,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77">
@@ -1390,7 +1630,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78">
@@ -1398,7 +1638,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79">
@@ -1406,7 +1646,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80">
@@ -1414,7 +1654,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81">
@@ -1422,7 +1662,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82">
@@ -1430,7 +1670,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83">
@@ -1438,7 +1678,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84">
@@ -1446,7 +1686,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85">
@@ -1454,7 +1694,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86">
@@ -1462,7 +1702,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87">
@@ -1470,7 +1710,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88">
@@ -1478,7 +1718,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89">
@@ -1486,7 +1726,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90">
@@ -1494,7 +1734,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91">
@@ -1502,7 +1742,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92">
@@ -1510,7 +1750,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93">
@@ -1518,7 +1758,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94">
@@ -1526,7 +1766,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95">
@@ -1534,7 +1774,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96">
@@ -1542,7 +1782,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97">
@@ -1550,7 +1790,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98">
@@ -1558,7 +1798,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99">
@@ -1566,7 +1806,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100">
@@ -1574,7 +1814,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
     </row>
     <row r="101">
@@ -1582,7 +1822,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
     </row>
     <row r="102">
@@ -1590,7 +1830,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103">
@@ -1598,7 +1838,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104">
@@ -1606,7 +1846,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="105">
@@ -1614,7 +1854,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
     </row>
     <row r="106">
@@ -1622,7 +1862,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107">
@@ -1630,7 +1870,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108">
@@ -1638,7 +1878,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109">
@@ -1646,7 +1886,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110">
@@ -1654,7 +1894,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111">
@@ -1662,7 +1902,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112">
@@ -1670,7 +1910,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113">
@@ -1678,7 +1918,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114">
@@ -1686,7 +1926,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
     </row>
     <row r="115">
@@ -1694,7 +1934,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116">
@@ -1702,7 +1942,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117">
@@ -1710,7 +1950,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118">
@@ -1718,7 +1958,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119">
@@ -1726,7 +1966,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120">
@@ -1734,7 +1974,327 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/seriea_match_urls.xlsx
+++ b/seriea_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
   <si>
     <t>x</t>
   </si>
@@ -494,6 +494,87 @@
     <t>159</t>
   </si>
   <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/5dd9a8ae/Genoa-Internazionale-August-17-2024-Serie-A</t>
   </si>
   <si>
@@ -969,6 +1050,87 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/180750a4/Lazio-Internazionale-December-16-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/95273d30/Hellas-Verona-Milan-December-20-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b6364093/Torino-Bologna-December-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f40ec8ec/Genoa-Napoli-December-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9e5a4d3/Lecce-Lazio-December-21-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee646ed8/Roma-Parma-December-22-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e97ff3c8/Venezia-Cagliari-December-22-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8ea96d1a/Atalanta-Empoli-December-22-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d259dc6c/Monza-Juventus-December-22-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc6b88d2/Fiorentina-Udinese-December-23-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/815f82e8/Internazionale-Como-December-23-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45c4ef98/Parma-Monza-December-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6d5e84f9/Empoli-Genoa-December-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a4004016/Cagliari-Internazionale-December-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/864b029d/Lazio-Atalanta-December-28-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eda442e1/Udinese-Torino-December-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84d5d1b8/Napoli-Venezia-December-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/866b53df/Juventus-Fiorentina-December-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f619cbf/Milan-Roma-December-29-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e75996b8/Como-Lecce-December-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8607729b/Bologna-Hellas-Verona-December-30-2024-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/81fed71a/Venezia-Empoli-January-4-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b061fbf8/Fiorentina-Napoli-January-4-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9a2501ce/Hellas-Verona-Udinese-January-4-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/91f9e319/Monza-Cagliari-January-5-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/02f898b8/Lecce-Genoa-January-5-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cdeef583/Torino-Parma-January-5-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5e0b2192/Roma-Lazio-January-5-2025-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
@@ -1038,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -1046,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
@@ -1054,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
@@ -1070,7 +1232,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8">
@@ -1078,7 +1240,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -1086,7 +1248,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10">
@@ -1094,7 +1256,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
@@ -1102,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
@@ -1110,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13">
@@ -1118,7 +1280,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14">
@@ -1126,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15">
@@ -1134,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1304,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -1150,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
@@ -1158,7 +1320,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
@@ -1166,7 +1328,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20">
@@ -1174,7 +1336,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -1182,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
@@ -1190,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
@@ -1198,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
@@ -1206,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
@@ -1214,7 +1376,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
@@ -1222,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
@@ -1230,7 +1392,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
@@ -1238,7 +1400,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1408,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30">
@@ -1254,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -1262,7 +1424,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32">
@@ -1270,7 +1432,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33">
@@ -1278,7 +1440,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
@@ -1286,7 +1448,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35">
@@ -1294,7 +1456,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36">
@@ -1302,7 +1464,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
@@ -1310,7 +1472,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38">
@@ -1318,7 +1480,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1488,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40">
@@ -1334,7 +1496,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
@@ -1342,7 +1504,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42">
@@ -1350,7 +1512,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43">
@@ -1358,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44">
@@ -1366,7 +1528,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45">
@@ -1374,7 +1536,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46">
@@ -1382,7 +1544,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47">
@@ -1390,7 +1552,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48">
@@ -1398,7 +1560,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49">
@@ -1406,7 +1568,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50">
@@ -1414,7 +1576,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51">
@@ -1422,7 +1584,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52">
@@ -1430,7 +1592,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53">
@@ -1438,7 +1600,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54">
@@ -1446,7 +1608,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55">
@@ -1454,7 +1616,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56">
@@ -1462,7 +1624,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57">
@@ -1470,7 +1632,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1640,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59">
@@ -1486,7 +1648,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60">
@@ -1494,7 +1656,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61">
@@ -1502,7 +1664,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62">
@@ -1510,7 +1672,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63">
@@ -1518,7 +1680,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64">
@@ -1526,7 +1688,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65">
@@ -1534,7 +1696,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66">
@@ -1542,7 +1704,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67">
@@ -1550,7 +1712,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68">
@@ -1558,7 +1720,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69">
@@ -1566,7 +1728,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70">
@@ -1574,7 +1736,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71">
@@ -1582,7 +1744,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72">
@@ -1590,7 +1752,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73">
@@ -1598,7 +1760,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74">
@@ -1606,7 +1768,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75">
@@ -1614,7 +1776,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="76">
@@ -1622,7 +1784,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77">
@@ -1630,7 +1792,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78">
@@ -1638,7 +1800,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79">
@@ -1646,7 +1808,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80">
@@ -1654,7 +1816,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81">
@@ -1662,7 +1824,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82">
@@ -1670,7 +1832,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83">
@@ -1678,7 +1840,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84">
@@ -1686,7 +1848,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85">
@@ -1694,7 +1856,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86">
@@ -1702,7 +1864,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87">
@@ -1710,7 +1872,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88">
@@ -1718,7 +1880,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89">
@@ -1726,7 +1888,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90">
@@ -1734,7 +1896,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91">
@@ -1742,7 +1904,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92">
@@ -1750,7 +1912,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93">
@@ -1758,7 +1920,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +1928,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95">
@@ -1774,7 +1936,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1944,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97">
@@ -1790,7 +1952,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98">
@@ -1798,7 +1960,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99">
@@ -1806,7 +1968,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100">
@@ -1814,7 +1976,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101">
@@ -1822,7 +1984,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102">
@@ -1830,7 +1992,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103">
@@ -1838,7 +2000,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104">
@@ -1846,7 +2008,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105">
@@ -1854,7 +2016,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="106">
@@ -1862,7 +2024,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107">
@@ -1870,7 +2032,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108">
@@ -1878,7 +2040,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109">
@@ -1886,7 +2048,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110">
@@ -1894,7 +2056,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111">
@@ -1902,7 +2064,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112">
@@ -1910,7 +2072,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113">
@@ -1918,7 +2080,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114">
@@ -1926,7 +2088,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115">
@@ -1934,7 +2096,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116">
@@ -1942,7 +2104,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117">
@@ -1950,7 +2112,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118">
@@ -1958,7 +2120,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119">
@@ -1966,7 +2128,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120">
@@ -1974,7 +2136,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="121">
@@ -1982,7 +2144,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122">
@@ -1990,7 +2152,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="123">
@@ -1998,7 +2160,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124">
@@ -2006,7 +2168,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125">
@@ -2014,7 +2176,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
     </row>
     <row r="126">
@@ -2022,7 +2184,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="127">
@@ -2030,7 +2192,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128">
@@ -2038,7 +2200,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
     </row>
     <row r="129">
@@ -2046,7 +2208,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="130">
@@ -2054,7 +2216,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131">
@@ -2062,7 +2224,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132">
@@ -2070,7 +2232,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133">
@@ -2078,7 +2240,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134">
@@ -2086,7 +2248,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
     </row>
     <row r="135">
@@ -2094,7 +2256,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136">
@@ -2102,7 +2264,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137">
@@ -2110,7 +2272,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138">
@@ -2118,7 +2280,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
     </row>
     <row r="139">
@@ -2126,7 +2288,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="140">
@@ -2134,7 +2296,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
     </row>
     <row r="141">
@@ -2142,7 +2304,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142">
@@ -2150,7 +2312,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
     </row>
     <row r="143">
@@ -2158,7 +2320,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144">
@@ -2166,7 +2328,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
     </row>
     <row r="145">
@@ -2174,7 +2336,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146">
@@ -2182,7 +2344,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
     </row>
     <row r="147">
@@ -2190,7 +2352,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148">
@@ -2198,7 +2360,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
     </row>
     <row r="149">
@@ -2206,7 +2368,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="150">
@@ -2214,7 +2376,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151">
@@ -2222,7 +2384,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152">
@@ -2230,7 +2392,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153">
@@ -2238,7 +2400,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154">
@@ -2246,7 +2408,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155">
@@ -2254,7 +2416,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156">
@@ -2262,7 +2424,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157">
@@ -2270,7 +2432,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158">
@@ -2278,7 +2440,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159">
@@ -2286,7 +2448,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160">
@@ -2294,7 +2456,223 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>318</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/seriea_match_urls.xlsx
+++ b/seriea_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="541">
   <si>
     <t>x</t>
   </si>
@@ -575,6 +575,258 @@
     <t>186</t>
   </si>
   <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/5dd9a8ae/Genoa-Internazionale-August-17-2024-Serie-A</t>
   </si>
   <si>
@@ -983,9 +1235,6 @@
     <t>https://fbref.com/en/matches/655f8c05/Parma-Lazio-December-1-2024-Serie-A</t>
   </si>
   <si>
-    <t>https://fbref.com/en/matches/f7e35659/Fiorentina-Internazionale-December-1-2024-Serie-A</t>
-  </si>
-  <si>
     <t>https://fbref.com/en/matches/6663ff8b/Lecce-Juventus-December-1-2024-Serie-A</t>
   </si>
   <si>
@@ -1131,6 +1380,261 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/5e0b2192/Roma-Lazio-January-5-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f8c231d6/Lazio-Como-January-10-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/69cd8e7c/Udinese-Atalanta-January-11-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fad008cb/Empoli-Lecce-January-11-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ccb3439a/Torino-Juventus-January-11-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/48765cf8/Milan-Cagliari-January-11-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ac1441eb/Genoa-Parma-January-12-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/358fd054/Venezia-Internazionale-January-12-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a5eda625/Bologna-Roma-January-12-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/340f5b84/Napoli-Hellas-Verona-January-12-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d27a6eb4/Monza-Fiorentina-January-13-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c8bcd0d8/Como-Milan-January-14-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/167a39df/Atalanta-Juventus-January-14-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/276006d8/Internazionale-Bologna-January-15-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00edb7b5/Roma-Genoa-January-17-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9f9010d6/Bologna-Monza-January-18-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4ba45ccb/Juventus-Milan-January-18-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c60e5b0e/Atalanta-Napoli-January-18-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15a113e1/Fiorentina-Torino-January-19-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/25c00123/Cagliari-Lecce-January-19-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa8b77b9/Parma-Venezia-January-19-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a125644d/Hellas-Verona-Lazio-January-19-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94972e08/Internazionale-Empoli-January-19-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0e2d0788/Como-Udinese-January-20-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ef7d0127/Torino-Cagliari-January-24-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b003f7e9/Como-Atalanta-January-25-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8e264909/Napoli-Juventus-January-25-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/23c955ea/Empoli-Bologna-January-25-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/212a47ce/Milan-Parma-January-26-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bab3336a/Udinese-Roma-January-26-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c93d7be3/Lecce-Internazionale-January-26-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f421e14/Lazio-Fiorentina-January-26-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/172aa746/Venezia-Hellas-Verona-January-27-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3cf963e6/Genoa-Monza-January-27-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/be735978/Parma-Lecce-January-31-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/55a39dc2/Udinese-Venezia-February-1-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/95dc31fb/Monza-Hellas-Verona-February-1-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5ce2b496/Atalanta-Torino-February-1-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/313b466d/Bologna-Como-February-1-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/448d4707/Juventus-Empoli-February-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d04f2be7/Fiorentina-Genoa-February-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c14ebb74/Derby-della-Madonnina-Milan-Internazionale-February-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bc8eb4c8/Derby-del-Sole-Roma-Napoli-February-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b57b989/Cagliari-Lazio-February-3-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7e35659/Fiorentina-Internazionale-February-6-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3278f598/Como-Juventus-February-7-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d1303859/Hellas-Verona-Atalanta-February-8-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3af8a61d/Empoli-Milan-February-8-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/094512d6/Torino-Genoa-February-8-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/99a32fd5/Venezia-Roma-February-9-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/23f6ed48/Cagliari-Parma-February-9-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a8e48bad/Lazio-Monza-February-9-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2b41c316/Lecce-Bologna-February-9-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2d512f04/Napoli-Udinese-February-9-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ccfbf3d4/Internazionale-Fiorentina-February-10-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a88cd10b/Bologna-Torino-February-14-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aad0599d/Atalanta-Cagliari-February-15-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/95099d4b/Lazio-Napoli-February-15-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/70955f6e/Milan-Hellas-Verona-February-15-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/02aa80e2/Fiorentina-Como-February-16-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1fbf8daa/Udinese-Empoli-February-16-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eccedcc2/Monza-Lecce-February-16-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/375b1b94/Parma-Roma-February-16-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1937abc6/Derby-dItalia-Juventus-Internazionale-February-16-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/696a318f/Genoa-Venezia-February-17-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9ec509fe/Lecce-Udinese-February-21-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/48f3bc32/Venezia-Lazio-February-22-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ebb1f74f/Parma-Bologna-February-22-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e6575a92/Torino-Milan-February-22-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d32f9068/Internazionale-Genoa-February-22-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f232cc45/Como-Napoli-February-23-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e156f514/Hellas-Verona-Fiorentina-February-23-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/89964eba/Empoli-Atalanta-February-23-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e87e1d99/Cagliari-Juventus-February-23-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e00a9736/Roma-Monza-February-24-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f718bc4/Bologna-Milan-February-27-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d99d1615/Fiorentina-Lecce-February-28-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/af143178/Atalanta-Venezia-March-1-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/74de313e/Napoli-Internazionale-March-1-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/55b0643e/Udinese-Parma-March-1-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ff368ffa/Monza-Torino-March-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a38d0698/Genoa-Empoli-March-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ece34ddb/Bologna-Cagliari-March-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a7745557/Roma-Como-March-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8ea3005d/Milan-Lazio-March-2-2025-Serie-A</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3974ef83/Juventus-Hellas-Verona-March-3-2025-Serie-A</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -1200,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4">
@@ -1208,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
@@ -1216,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
@@ -1224,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7">
@@ -1232,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8">
@@ -1240,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9">
@@ -1248,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11">
@@ -1264,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12">
@@ -1272,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13">
@@ -1280,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14">
@@ -1288,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
@@ -1296,7 +1800,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16">
@@ -1304,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17">
@@ -1312,7 +1816,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18">
@@ -1320,7 +1824,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19">
@@ -1328,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>204</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1840,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21">
@@ -1344,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22">
@@ -1352,7 +1856,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23">
@@ -1360,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24">
@@ -1368,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25">
@@ -1376,7 +1880,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26">
@@ -1384,7 +1888,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27">
@@ -1392,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28">
@@ -1400,7 +1904,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
@@ -1408,7 +1912,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
@@ -1416,7 +1920,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31">
@@ -1424,7 +1928,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
@@ -1432,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
@@ -1440,7 +1944,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
@@ -1448,7 +1952,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1960,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36">
@@ -1464,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37">
@@ -1472,7 +1976,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
@@ -1480,7 +1984,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
@@ -1488,7 +1992,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40">
@@ -1496,7 +2000,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41">
@@ -1504,7 +2008,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42">
@@ -1512,7 +2016,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43">
@@ -1520,7 +2024,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44">
@@ -1528,7 +2032,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45">
@@ -1536,7 +2040,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46">
@@ -1544,7 +2048,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47">
@@ -1552,7 +2056,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48">
@@ -1560,7 +2064,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49">
@@ -1568,7 +2072,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50">
@@ -1576,7 +2080,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51">
@@ -1584,7 +2088,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52">
@@ -1592,7 +2096,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53">
@@ -1600,7 +2104,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54">
@@ -1608,7 +2112,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55">
@@ -1616,7 +2120,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56">
@@ -1624,7 +2128,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57">
@@ -1632,7 +2136,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58">
@@ -1640,7 +2144,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59">
@@ -1648,7 +2152,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60">
@@ -1656,7 +2160,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61">
@@ -1664,7 +2168,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +2176,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63">
@@ -1680,7 +2184,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64">
@@ -1688,7 +2192,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65">
@@ -1696,7 +2200,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66">
@@ -1704,7 +2208,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67">
@@ -1712,7 +2216,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
@@ -1720,7 +2224,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69">
@@ -1728,7 +2232,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>254</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
@@ -1736,7 +2240,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71">
@@ -1744,7 +2248,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72">
@@ -1752,7 +2256,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73">
@@ -1760,7 +2264,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74">
@@ -1768,7 +2272,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>259</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75">
@@ -1776,7 +2280,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>260</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76">
@@ -1784,7 +2288,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>261</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77">
@@ -1792,7 +2296,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78">
@@ -1800,7 +2304,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79">
@@ -1808,7 +2312,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80">
@@ -1816,7 +2320,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>265</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81">
@@ -1824,7 +2328,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82">
@@ -1832,7 +2336,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>267</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83">
@@ -1840,7 +2344,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>268</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84">
@@ -1848,7 +2352,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>269</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85">
@@ -1856,7 +2360,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>270</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86">
@@ -1864,7 +2368,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>271</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87">
@@ -1872,7 +2376,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88">
@@ -1880,7 +2384,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89">
@@ -1888,7 +2392,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90">
@@ -1896,7 +2400,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91">
@@ -1904,7 +2408,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92">
@@ -1912,7 +2416,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93">
@@ -1920,7 +2424,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94">
@@ -1928,7 +2432,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95">
@@ -1936,7 +2440,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96">
@@ -1944,7 +2448,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97">
@@ -1952,7 +2456,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98">
@@ -1960,7 +2464,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99">
@@ -1968,7 +2472,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100">
@@ -1976,7 +2480,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101">
@@ -1984,7 +2488,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102">
@@ -1992,7 +2496,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103">
@@ -2000,7 +2504,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104">
@@ -2008,7 +2512,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>289</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105">
@@ -2016,7 +2520,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>290</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106">
@@ -2024,7 +2528,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>291</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107">
@@ -2032,7 +2536,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>292</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108">
@@ -2040,7 +2544,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109">
@@ -2048,7 +2552,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110">
@@ -2056,7 +2560,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>295</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111">
@@ -2064,7 +2568,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>296</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112">
@@ -2072,7 +2576,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113">
@@ -2080,7 +2584,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
@@ -2088,7 +2592,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>299</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115">
@@ -2096,7 +2600,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>300</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116">
@@ -2104,7 +2608,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>301</v>
+        <v>385</v>
       </c>
     </row>
     <row r="117">
@@ -2112,7 +2616,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118">
@@ -2120,7 +2624,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>303</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119">
@@ -2128,7 +2632,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>304</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120">
@@ -2136,7 +2640,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>305</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121">
@@ -2144,7 +2648,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>306</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122">
@@ -2152,7 +2656,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>307</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123">
@@ -2160,7 +2664,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>308</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124">
@@ -2168,7 +2672,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>309</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125">
@@ -2176,7 +2680,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>310</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126">
@@ -2184,7 +2688,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>311</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127">
@@ -2192,7 +2696,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>312</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128">
@@ -2200,7 +2704,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129">
@@ -2208,7 +2712,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130">
@@ -2216,7 +2720,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>315</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131">
@@ -2224,7 +2728,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132">
@@ -2232,7 +2736,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133">
@@ -2240,7 +2744,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134">
@@ -2248,7 +2752,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135">
@@ -2256,7 +2760,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136">
@@ -2264,7 +2768,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137">
@@ -2272,7 +2776,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>322</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138">
@@ -2280,7 +2784,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139">
@@ -2288,7 +2792,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140">
@@ -2296,7 +2800,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>325</v>
+        <v>409</v>
       </c>
     </row>
     <row r="141">
@@ -2304,7 +2808,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>326</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142">
@@ -2312,7 +2816,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>327</v>
+        <v>411</v>
       </c>
     </row>
     <row r="143">
@@ -2320,7 +2824,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>328</v>
+        <v>412</v>
       </c>
     </row>
     <row r="144">
@@ -2328,7 +2832,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
     </row>
     <row r="145">
@@ -2336,7 +2840,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
     </row>
     <row r="146">
@@ -2344,7 +2848,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
     </row>
     <row r="147">
@@ -2352,7 +2856,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>332</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148">
@@ -2360,7 +2864,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>333</v>
+        <v>417</v>
       </c>
     </row>
     <row r="149">
@@ -2368,7 +2872,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>334</v>
+        <v>418</v>
       </c>
     </row>
     <row r="150">
@@ -2376,7 +2880,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>335</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151">
@@ -2384,7 +2888,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>336</v>
+        <v>420</v>
       </c>
     </row>
     <row r="152">
@@ -2392,7 +2896,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
     </row>
     <row r="153">
@@ -2400,7 +2904,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>338</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154">
@@ -2408,7 +2912,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>339</v>
+        <v>423</v>
       </c>
     </row>
     <row r="155">
@@ -2416,7 +2920,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>340</v>
+        <v>424</v>
       </c>
     </row>
     <row r="156">
@@ -2424,7 +2928,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>341</v>
+        <v>425</v>
       </c>
     </row>
     <row r="157">
@@ -2432,7 +2936,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>342</v>
+        <v>426</v>
       </c>
     </row>
     <row r="158">
@@ -2440,7 +2944,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>343</v>
+        <v>427</v>
       </c>
     </row>
     <row r="159">
@@ -2448,7 +2952,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>344</v>
+        <v>428</v>
       </c>
     </row>
     <row r="160">
@@ -2456,7 +2960,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
     </row>
     <row r="161">
@@ -2464,7 +2968,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>346</v>
+        <v>430</v>
       </c>
     </row>
     <row r="162">
@@ -2472,7 +2976,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>347</v>
+        <v>431</v>
       </c>
     </row>
     <row r="163">
@@ -2480,7 +2984,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>348</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164">
@@ -2488,7 +2992,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>349</v>
+        <v>433</v>
       </c>
     </row>
     <row r="165">
@@ -2496,7 +3000,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>350</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166">
@@ -2504,7 +3008,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>351</v>
+        <v>435</v>
       </c>
     </row>
     <row r="167">
@@ -2512,7 +3016,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>352</v>
+        <v>436</v>
       </c>
     </row>
     <row r="168">
@@ -2520,7 +3024,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>353</v>
+        <v>437</v>
       </c>
     </row>
     <row r="169">
@@ -2528,7 +3032,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>354</v>
+        <v>438</v>
       </c>
     </row>
     <row r="170">
@@ -2536,7 +3040,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>355</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171">
@@ -2544,7 +3048,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>356</v>
+        <v>440</v>
       </c>
     </row>
     <row r="172">
@@ -2552,7 +3056,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>357</v>
+        <v>441</v>
       </c>
     </row>
     <row r="173">
@@ -2560,7 +3064,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>358</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174">
@@ -2568,7 +3072,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>359</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175">
@@ -2576,7 +3080,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
     </row>
     <row r="176">
@@ -2584,7 +3088,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>361</v>
+        <v>445</v>
       </c>
     </row>
     <row r="177">
@@ -2592,7 +3096,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>362</v>
+        <v>446</v>
       </c>
     </row>
     <row r="178">
@@ -2600,7 +3104,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>363</v>
+        <v>447</v>
       </c>
     </row>
     <row r="179">
@@ -2608,7 +3112,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>364</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180">
@@ -2616,7 +3120,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>365</v>
+        <v>449</v>
       </c>
     </row>
     <row r="181">
@@ -2624,7 +3128,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>366</v>
+        <v>450</v>
       </c>
     </row>
     <row r="182">
@@ -2632,7 +3136,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>367</v>
+        <v>451</v>
       </c>
     </row>
     <row r="183">
@@ -2640,7 +3144,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>452</v>
       </c>
     </row>
     <row r="184">
@@ -2648,7 +3152,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185">
@@ -2656,7 +3160,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186">
@@ -2664,7 +3168,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>371</v>
+        <v>455</v>
       </c>
     </row>
     <row r="187">
@@ -2672,7 +3176,679 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>372</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>
